--- a/team_specific_matrix/Denver_B.xlsx
+++ b/team_specific_matrix/Denver_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2117647058823529</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C2">
-        <v>0.5372549019607843</v>
+        <v>0.560126582278481</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02352941176470588</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529411764705882</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07450980392156863</v>
+        <v>0.08227848101265822</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01418439716312057</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="C3">
-        <v>0.02836879432624113</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03546099290780142</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7943262411347518</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1276595744680851</v>
+        <v>0.1630434782608696</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8181818181818182</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07344632768361582</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694915254237288</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07344632768361582</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2994350282485876</v>
+        <v>0.2863636363636364</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01694915254237288</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1977401129943503</v>
+        <v>0.1954545454545455</v>
       </c>
       <c r="R6">
-        <v>0.05649717514124294</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="S6">
-        <v>0.2655367231638418</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1401869158878505</v>
+        <v>0.1355311355311355</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009345794392523364</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03738317757009346</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1401869158878505</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01869158878504673</v>
+        <v>0.01831501831501832</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1962616822429906</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="R7">
-        <v>0.09345794392523364</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S7">
-        <v>0.3644859813084112</v>
+        <v>0.3626373626373626</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07579462102689487</v>
+        <v>0.07312252964426877</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02200488997555012</v>
+        <v>0.02569169960474308</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0488997555012225</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1124694376528117</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01466992665036675</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2200488997555012</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="R8">
-        <v>0.09535452322738386</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="S8">
-        <v>0.410757946210269</v>
+        <v>0.3972332015810277</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.101063829787234</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02127659574468085</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06382978723404255</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05319148936170213</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01063829787234043</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1702127659574468</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="R9">
-        <v>0.07446808510638298</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="S9">
-        <v>0.5053191489361702</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09840674789128398</v>
+        <v>0.1032403918613414</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.014058106841612</v>
+        <v>0.01582516955538809</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06466729147141519</v>
+        <v>0.06631499623210249</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1415182755388941</v>
+        <v>0.132629992464205</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02530459231490159</v>
+        <v>0.02260738507912585</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2446110590440487</v>
+        <v>0.2426525998492841</v>
       </c>
       <c r="R10">
-        <v>0.08622305529522024</v>
+        <v>0.08741522230595328</v>
       </c>
       <c r="S10">
-        <v>0.3252108716026242</v>
+        <v>0.3293142426525998</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1610738255033557</v>
+        <v>0.1620253164556962</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06711409395973154</v>
+        <v>0.06835443037974684</v>
       </c>
       <c r="K11">
-        <v>0.1812080536912752</v>
+        <v>0.1873417721518987</v>
       </c>
       <c r="L11">
-        <v>0.5738255033557047</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01677852348993289</v>
+        <v>0.01265822784810127</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.005617977528089887</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="G12">
-        <v>0.7584269662921348</v>
+        <v>0.7372881355932204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1573033707865168</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="K12">
-        <v>0.02808988764044944</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="L12">
-        <v>0.03370786516853932</v>
+        <v>0.03813559322033899</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01685393258426966</v>
+        <v>0.02542372881355932</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2549019607843137</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0392156862745098</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02747252747252747</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1483516483516484</v>
+        <v>0.1493212669683258</v>
       </c>
       <c r="I15">
-        <v>0.03846153846153846</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="J15">
-        <v>0.3241758241758242</v>
+        <v>0.3393665158371041</v>
       </c>
       <c r="K15">
-        <v>0.08241758241758242</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02197802197802198</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2857142857142857</v>
+        <v>0.2714932126696832</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01169590643274854</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2222222222222222</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="I16">
-        <v>0.0935672514619883</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="J16">
-        <v>0.3801169590643275</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="K16">
-        <v>0.1403508771929824</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03508771929824561</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="N16">
-        <v>0.01169590643274854</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="O16">
-        <v>0.01754385964912281</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08771929824561403</v>
+        <v>0.1126760563380282</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01746724890829694</v>
+        <v>0.01896551724137931</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2008733624454148</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="I17">
-        <v>0.09388646288209607</v>
+        <v>0.09827586206896552</v>
       </c>
       <c r="J17">
-        <v>0.4082969432314411</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>0.1026200873362445</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0240174672489083</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0611353711790393</v>
+        <v>0.05689655172413793</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09170305676855896</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1828571428571429</v>
+        <v>0.1945701357466063</v>
       </c>
       <c r="I18">
-        <v>0.09142857142857143</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="J18">
-        <v>0.4514285714285714</v>
+        <v>0.4208144796380091</v>
       </c>
       <c r="K18">
-        <v>0.07428571428571429</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02285714285714286</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="N18">
-        <v>0.005714285714285714</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O18">
-        <v>0.04571428571428571</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1257142857142857</v>
+        <v>0.1402714932126697</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01663405088062622</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.210371819960861</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="I19">
-        <v>0.1027397260273973</v>
+        <v>0.09885057471264368</v>
       </c>
       <c r="J19">
-        <v>0.3405088062622309</v>
+        <v>0.3371647509578544</v>
       </c>
       <c r="K19">
-        <v>0.1291585127201565</v>
+        <v>0.1363984674329502</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02348336594911937</v>
+        <v>0.02605363984674329</v>
       </c>
       <c r="N19">
-        <v>0.0009784735812133072</v>
+        <v>0.0007662835249042146</v>
       </c>
       <c r="O19">
-        <v>0.06457925636007827</v>
+        <v>0.06130268199233716</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.111545988258317</v>
+        <v>0.1187739463601533</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Denver_B.xlsx
+++ b/team_specific_matrix/Denver_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1962025316455696</v>
+        <v>0.1920731707317073</v>
       </c>
       <c r="C2">
-        <v>0.560126582278481</v>
+        <v>0.5701219512195121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0189873417721519</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1424050632911392</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08227848101265822</v>
+        <v>0.07926829268292683</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01630434782608696</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C3">
-        <v>0.02717391304347826</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03260869565217391</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7608695652173914</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1630434782608696</v>
+        <v>0.158974358974359</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7608695652173914</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2173913043478261</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07727272727272727</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07727272727272727</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2863636363636364</v>
+        <v>0.2956521739130435</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01363636363636364</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1954545454545455</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="R6">
-        <v>0.05909090909090909</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="S6">
-        <v>0.2727272727272727</v>
+        <v>0.2695652173913043</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1355311355311355</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01098901098901099</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0293040293040293</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1453900709219858</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01831501831501832</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2051282051282051</v>
+        <v>0.2092198581560284</v>
       </c>
       <c r="R7">
-        <v>0.09523809523809523</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="S7">
-        <v>0.3626373626373626</v>
+        <v>0.3581560283687943</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07312252964426877</v>
+        <v>0.07572815533980583</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02569169960474308</v>
+        <v>0.02524271844660194</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04347826086956522</v>
+        <v>0.04271844660194175</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1146245059288538</v>
+        <v>0.112621359223301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01185770750988142</v>
+        <v>0.0116504854368932</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2391304347826087</v>
+        <v>0.2368932038834951</v>
       </c>
       <c r="R8">
-        <v>0.09486166007905138</v>
+        <v>0.09514563106796116</v>
       </c>
       <c r="S8">
-        <v>0.3972332015810277</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09663865546218488</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02100840336134454</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06722689075630252</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07563025210084033</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01260504201680672</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.180672268907563</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="R9">
-        <v>0.07563025210084033</v>
+        <v>0.07723577235772358</v>
       </c>
       <c r="S9">
-        <v>0.4705882352941176</v>
+        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1032403918613414</v>
+        <v>0.1019664967225055</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01582516955538809</v>
+        <v>0.01602330662782229</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06631499623210249</v>
+        <v>0.06700655498907501</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.132629992464205</v>
+        <v>0.1318281136198106</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02260738507912585</v>
+        <v>0.02184996358339403</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2426525998492841</v>
+        <v>0.2447195921340131</v>
       </c>
       <c r="R10">
-        <v>0.08741522230595328</v>
+        <v>0.08667152221412965</v>
       </c>
       <c r="S10">
-        <v>0.3293142426525998</v>
+        <v>0.3299344501092498</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1620253164556962</v>
+        <v>0.1598062953995157</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06835443037974684</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="K11">
-        <v>0.1873417721518987</v>
+        <v>0.1937046004842615</v>
       </c>
       <c r="L11">
-        <v>0.569620253164557</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01265822784810127</v>
+        <v>0.01452784503631961</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00423728813559322</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="G12">
-        <v>0.7372881355932204</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.173728813559322</v>
+        <v>0.168724279835391</v>
       </c>
       <c r="K12">
-        <v>0.0211864406779661</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="L12">
-        <v>0.03813559322033899</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02542372881355932</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6825396825396826</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2380952380952381</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07936507936507936</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02714932126696833</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1493212669683258</v>
+        <v>0.1460176991150443</v>
       </c>
       <c r="I15">
-        <v>0.04072398190045249</v>
+        <v>0.03982300884955752</v>
       </c>
       <c r="J15">
-        <v>0.3393665158371041</v>
+        <v>0.3451327433628318</v>
       </c>
       <c r="K15">
-        <v>0.08597285067873303</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01809954751131222</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06787330316742081</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2714932126696832</v>
+        <v>0.2743362831858407</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01408450704225352</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2065727699530517</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.1032863849765258</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="J16">
-        <v>0.3661971830985916</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="K16">
-        <v>0.1267605633802817</v>
+        <v>0.1244444444444444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02816901408450704</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N16">
-        <v>0.009389671361502348</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="O16">
-        <v>0.03286384976525822</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1126760563380282</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01896551724137931</v>
+        <v>0.01830282861896839</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1931034482758621</v>
+        <v>0.1896838602329451</v>
       </c>
       <c r="I17">
-        <v>0.09827586206896552</v>
+        <v>0.1014975041597338</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3993344425956739</v>
       </c>
       <c r="K17">
-        <v>0.1120689655172414</v>
+        <v>0.1131447587354409</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02068965517241379</v>
+        <v>0.021630615640599</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="O17">
-        <v>0.05689655172413793</v>
+        <v>0.05823627287853577</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1</v>
+        <v>0.09650582362728785</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004524886877828055</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1945701357466063</v>
+        <v>0.1902654867256637</v>
       </c>
       <c r="I18">
-        <v>0.09502262443438914</v>
+        <v>0.09292035398230089</v>
       </c>
       <c r="J18">
-        <v>0.4208144796380091</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="K18">
-        <v>0.06334841628959276</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02262443438914027</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="N18">
-        <v>0.004524886877828055</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O18">
-        <v>0.05429864253393665</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1402714932126697</v>
+        <v>0.1371681415929203</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01379310344827586</v>
+        <v>0.01341281669150522</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2068965517241379</v>
+        <v>0.2056631892697466</v>
       </c>
       <c r="I19">
-        <v>0.09885057471264368</v>
+        <v>0.09910581222056632</v>
       </c>
       <c r="J19">
-        <v>0.3371647509578544</v>
+        <v>0.338301043219076</v>
       </c>
       <c r="K19">
-        <v>0.1363984674329502</v>
+        <v>0.1371087928464978</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02605363984674329</v>
+        <v>0.02682563338301043</v>
       </c>
       <c r="N19">
-        <v>0.0007662835249042146</v>
+        <v>0.0007451564828614009</v>
       </c>
       <c r="O19">
-        <v>0.06130268199233716</v>
+        <v>0.06035767511177347</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1187739463601533</v>
+        <v>0.1184798807749627</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Denver_B.xlsx
+++ b/team_specific_matrix/Denver_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1920731707317073</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="C2">
-        <v>0.5701219512195121</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01829268292682927</v>
+        <v>0.01791044776119403</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1402439024390244</v>
+        <v>0.1402985074626866</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07926829268292683</v>
+        <v>0.08059701492537313</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01538461538461539</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C3">
-        <v>0.02564102564102564</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03076923076923077</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7692307692307693</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.158974358974359</v>
+        <v>0.1565656565656566</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08260869565217391</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01739130434782609</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07391304347826087</v>
+        <v>0.075</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2956521739130435</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01304347826086956</v>
+        <v>0.0125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.191304347826087</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="R6">
-        <v>0.05652173913043478</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="S6">
-        <v>0.2695652173913043</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1382978723404255</v>
+        <v>0.137809187279152</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01063829787234043</v>
+        <v>0.01060070671378092</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02836879432624113</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1453900709219858</v>
+        <v>0.1448763250883392</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01773049645390071</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2092198581560284</v>
+        <v>0.2084805653710247</v>
       </c>
       <c r="R7">
-        <v>0.09219858156028368</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="S7">
-        <v>0.3581560283687943</v>
+        <v>0.3568904593639576</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07572815533980583</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02524271844660194</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04271844660194175</v>
+        <v>0.04127579737335835</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.112621359223301</v>
+        <v>0.1144465290806754</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0116504854368932</v>
+        <v>0.01125703564727955</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2368932038834951</v>
+        <v>0.2382739212007505</v>
       </c>
       <c r="R8">
-        <v>0.09514563106796116</v>
+        <v>0.09380863039399624</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.399624765478424</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0975609756097561</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02032520325203252</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07317073170731707</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1829268292682927</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R9">
-        <v>0.07723577235772358</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="S9">
-        <v>0.4634146341463415</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1019664967225055</v>
+        <v>0.1004953998584572</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01602330662782229</v>
+        <v>0.01556970983722576</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06700655498907501</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1318281136198106</v>
+        <v>0.1280962491153574</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02184996358339403</v>
+        <v>0.02193913658881812</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2447195921340131</v>
+        <v>0.2469922151450814</v>
       </c>
       <c r="R10">
-        <v>0.08667152221412965</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="S10">
-        <v>0.3299344501092498</v>
+        <v>0.3276716206652512</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1598062953995157</v>
+        <v>0.1590361445783132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07263922518159806</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="K11">
-        <v>0.1937046004842615</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L11">
-        <v>0.559322033898305</v>
+        <v>0.5614457831325301</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01452784503631961</v>
+        <v>0.01445783132530121</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00411522633744856</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="G12">
-        <v>0.7407407407407407</v>
+        <v>0.7418032786885246</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.168724279835391</v>
+        <v>0.1680327868852459</v>
       </c>
       <c r="K12">
-        <v>0.0205761316872428</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="L12">
-        <v>0.0411522633744856</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02469135802469136</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02654867256637168</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1460176991150443</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="I15">
-        <v>0.03982300884955752</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="J15">
-        <v>0.3451327433628318</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="K15">
-        <v>0.084070796460177</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01769911504424779</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06637168141592921</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2743362831858407</v>
+        <v>0.270042194092827</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01777777777777778</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="I16">
-        <v>0.09777777777777778</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="J16">
-        <v>0.3733333333333334</v>
+        <v>0.3799126637554585</v>
       </c>
       <c r="K16">
-        <v>0.1244444444444444</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02666666666666667</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="N16">
-        <v>0.008888888888888889</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="O16">
-        <v>0.03111111111111111</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1179039301310044</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01830282861896839</v>
+        <v>0.01762820512820513</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1896838602329451</v>
+        <v>0.1907051282051282</v>
       </c>
       <c r="I17">
-        <v>0.1014975041597338</v>
+        <v>0.09935897435897435</v>
       </c>
       <c r="J17">
-        <v>0.3993344425956739</v>
+        <v>0.4006410256410257</v>
       </c>
       <c r="K17">
-        <v>0.1131447587354409</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.021630615640599</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N17">
-        <v>0.001663893510815308</v>
+        <v>0.001602564102564103</v>
       </c>
       <c r="O17">
-        <v>0.05823627287853577</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09650582362728785</v>
+        <v>0.09455128205128205</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01327433628318584</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1902654867256637</v>
+        <v>0.1991525423728814</v>
       </c>
       <c r="I18">
-        <v>0.09292035398230089</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="J18">
-        <v>0.415929203539823</v>
+        <v>0.4110169491525424</v>
       </c>
       <c r="K18">
-        <v>0.06637168141592921</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02212389380530973</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="N18">
-        <v>0.004424778761061947</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="O18">
-        <v>0.05752212389380531</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1371681415929203</v>
+        <v>0.1398305084745763</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01341281669150522</v>
+        <v>0.01460920379839299</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2056631892697466</v>
+        <v>0.2081811541271001</v>
       </c>
       <c r="I19">
-        <v>0.09910581222056632</v>
+        <v>0.09861212563915267</v>
       </c>
       <c r="J19">
-        <v>0.338301043219076</v>
+        <v>0.3403944485025566</v>
       </c>
       <c r="K19">
-        <v>0.1371087928464978</v>
+        <v>0.1344046749452155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02682563338301043</v>
+        <v>0.02629656683710738</v>
       </c>
       <c r="N19">
-        <v>0.0007451564828614009</v>
+        <v>0.0007304601899196494</v>
       </c>
       <c r="O19">
-        <v>0.06035767511177347</v>
+        <v>0.0606281957633309</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1184798807749627</v>
+        <v>0.1161431701972243</v>
       </c>
     </row>
   </sheetData>
